--- a/Processes/Finance/Reporting/Cash Management.xlsx
+++ b/Processes/Finance/Reporting/Cash Management.xlsx
@@ -1,41 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eichhornd\Desktop\Projekte\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685EF18E-597F-4609-81DB-1316753714AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Reporting" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
-    <t>Cash End</t>
+    <t>Cash Management</t>
+  </si>
+  <si>
+    <t>in TEUR</t>
   </si>
   <si>
     <t>Cash Beginning</t>
@@ -44,7 +28,13 @@
     <t>Incoming</t>
   </si>
   <si>
-    <t>Outgoing</t>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Advances</t>
+  </si>
+  <si>
+    <t>Other income</t>
   </si>
   <si>
     <t>Loan</t>
@@ -53,10 +43,10 @@
     <t>Interest</t>
   </si>
   <si>
-    <t>Taxes</t>
+    <t>Other</t>
   </si>
   <si>
-    <t>Payroll</t>
+    <t>Outgoing</t>
   </si>
   <si>
     <t>Merchandise</t>
@@ -65,37 +55,32 @@
     <t>OPEX</t>
   </si>
   <si>
+    <t>Payroll</t>
+  </si>
+  <si>
     <t>Investments</t>
   </si>
   <si>
-    <t>Sales</t>
+    <t>Taxes</t>
   </si>
   <si>
-    <t>Other income</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Advances</t>
-  </si>
-  <si>
-    <t>in TEUR</t>
-  </si>
-  <si>
-    <t>Cash Management</t>
+    <t>Cash End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,53 +89,185 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,18 +276,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,22 +485,258 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -205,71 +744,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="17" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF8EA9DB"/>
+      <color rgb="008EA9DB"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -556,1706 +1137,1706 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:O773"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" style="8" customWidth="1"/>
-    <col min="4" max="15" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.57142857142857" style="2" customWidth="1"/>
+    <col min="4" max="15" width="12.1428571428571" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="14">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
         <v>44592</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="7">
         <v>44620</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="7">
         <v>44651</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="7">
         <v>44681</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="7">
         <v>44712</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="7">
         <v>44742</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="7">
         <v>44773</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="7">
         <v>44804</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="7">
         <v>44834</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="7">
         <v>44865</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="7">
         <v>44895</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="7">
         <v>44926</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+    <row r="4" spans="4:15">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="16">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
         <f>1000000/1000</f>
         <v>1000</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <f>+D37</f>
         <v>1000</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="11">
         <f t="shared" ref="F5:O5" si="0">+E37</f>
         <v>1000</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+    <row r="6" spans="3:15">
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="14">
         <f>+SUM(D8:D18)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="14">
         <f t="shared" ref="E7:O7" si="1">+SUM(E8:E18)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+    <row r="8" spans="3:15">
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="5">
+      <c r="B19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="14">
         <f>+SUM(D20:D36)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="14">
         <f t="shared" ref="E19:O19" si="2">+SUM(E20:E36)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+    <row r="20" spans="3:15">
+      <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="3:15">
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="16">
+      <c r="B37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
         <f>+D5+D7+D19</f>
         <v>1000</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="11">
         <f t="shared" ref="E37:O37" si="3">+E5+E7+E19</f>
         <v>1000</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="11">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="C48" s="9"/>
+    <row r="38" spans="3:3">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="10"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="9"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="9"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="9"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="9"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="9"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="9"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="9"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="9"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="3:3">
-      <c r="C57" s="9"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="9"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="9"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="9"/>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="9"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="9"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="9"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="9"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="9"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="9"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="9"/>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="9"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="9"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="9"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="9"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="9"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="9"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="9"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="9"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="9"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="9"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="9"/>
+      <c r="C78" s="10"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="9"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="9"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="9"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="9"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="9"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="9"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="9"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="9"/>
+      <c r="C86" s="10"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="9"/>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="9"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="9"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="9"/>
+      <c r="C90" s="10"/>
     </row>
     <row r="91" spans="3:3">
-      <c r="C91" s="9"/>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="9"/>
+      <c r="C92" s="10"/>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="9"/>
+      <c r="C93" s="10"/>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="9"/>
+      <c r="C94" s="10"/>
     </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="9"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="3:3">
-      <c r="C96" s="9"/>
+      <c r="C96" s="10"/>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="9"/>
+      <c r="C97" s="10"/>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="9"/>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="9"/>
+      <c r="C99" s="10"/>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="9"/>
+      <c r="C100" s="10"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="9"/>
+      <c r="C101" s="10"/>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="9"/>
+      <c r="C102" s="10"/>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="9"/>
+      <c r="C103" s="10"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="9"/>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="9"/>
+      <c r="C105" s="10"/>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="9"/>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="9"/>
+      <c r="C107" s="10"/>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="9"/>
+      <c r="C108" s="10"/>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="9"/>
+      <c r="C109" s="10"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="9"/>
+      <c r="C110" s="10"/>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="9"/>
+      <c r="C111" s="10"/>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="9"/>
+      <c r="C112" s="10"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="10"/>
+      <c r="C113" s="15"/>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="10"/>
+      <c r="C114" s="15"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="10"/>
+      <c r="C115" s="15"/>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="10"/>
+      <c r="C116" s="15"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="10"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="10"/>
+      <c r="C118" s="15"/>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="10"/>
+      <c r="C119" s="15"/>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="10"/>
+      <c r="C120" s="15"/>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="9"/>
+      <c r="C122" s="10"/>
     </row>
     <row r="127" spans="3:3">
-      <c r="C127" s="9"/>
+      <c r="C127" s="10"/>
     </row>
     <row r="128" spans="3:3">
-      <c r="C128" s="9"/>
+      <c r="C128" s="10"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="9"/>
+      <c r="C129" s="10"/>
     </row>
     <row r="130" spans="3:3">
-      <c r="C130" s="9"/>
+      <c r="C130" s="10"/>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="9"/>
+      <c r="C131" s="10"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="9"/>
+      <c r="C132" s="10"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="9"/>
+      <c r="C133" s="10"/>
     </row>
     <row r="134" spans="3:3">
-      <c r="C134" s="9"/>
+      <c r="C134" s="10"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="9"/>
+      <c r="C135" s="10"/>
     </row>
     <row r="136" spans="3:3">
-      <c r="C136" s="9"/>
+      <c r="C136" s="10"/>
     </row>
     <row r="137" spans="3:3">
-      <c r="C137" s="9"/>
+      <c r="C137" s="10"/>
     </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="9"/>
+      <c r="C138" s="10"/>
     </row>
     <row r="139" spans="3:3">
-      <c r="C139" s="9"/>
+      <c r="C139" s="10"/>
     </row>
     <row r="140" spans="3:3">
-      <c r="C140" s="9"/>
+      <c r="C140" s="10"/>
     </row>
     <row r="141" spans="3:3">
-      <c r="C141" s="9"/>
+      <c r="C141" s="10"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="9"/>
+      <c r="C142" s="10"/>
     </row>
     <row r="143" spans="3:3">
-      <c r="C143" s="9"/>
+      <c r="C143" s="10"/>
     </row>
     <row r="144" spans="3:3">
-      <c r="C144" s="9"/>
+      <c r="C144" s="10"/>
     </row>
     <row r="145" spans="3:3">
-      <c r="C145" s="9"/>
+      <c r="C145" s="10"/>
     </row>
     <row r="146" spans="3:3">
-      <c r="C146" s="9"/>
+      <c r="C146" s="10"/>
     </row>
     <row r="147" spans="3:3">
-      <c r="C147" s="9"/>
+      <c r="C147" s="10"/>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="9"/>
+      <c r="C148" s="10"/>
     </row>
     <row r="149" spans="3:3">
-      <c r="C149" s="9"/>
+      <c r="C149" s="10"/>
     </row>
     <row r="150" spans="3:3">
-      <c r="C150" s="9"/>
+      <c r="C150" s="10"/>
     </row>
     <row r="151" spans="3:3">
-      <c r="C151" s="9"/>
+      <c r="C151" s="10"/>
     </row>
     <row r="152" spans="3:3">
-      <c r="C152" s="9"/>
+      <c r="C152" s="10"/>
     </row>
     <row r="153" spans="3:3">
-      <c r="C153" s="9"/>
+      <c r="C153" s="10"/>
     </row>
     <row r="154" spans="3:3">
-      <c r="C154" s="9"/>
+      <c r="C154" s="10"/>
     </row>
     <row r="155" spans="3:3">
-      <c r="C155" s="9"/>
+      <c r="C155" s="10"/>
     </row>
     <row r="156" spans="3:3">
-      <c r="C156" s="9"/>
+      <c r="C156" s="10"/>
     </row>
     <row r="157" spans="3:3">
-      <c r="C157" s="9"/>
+      <c r="C157" s="10"/>
     </row>
     <row r="158" spans="3:3">
-      <c r="C158" s="9"/>
+      <c r="C158" s="10"/>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="9"/>
+      <c r="C159" s="10"/>
     </row>
     <row r="160" spans="3:3">
-      <c r="C160" s="9"/>
+      <c r="C160" s="10"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="9"/>
+      <c r="C161" s="10"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="9"/>
+      <c r="C162" s="10"/>
     </row>
     <row r="163" spans="3:3">
-      <c r="C163" s="9"/>
+      <c r="C163" s="10"/>
     </row>
     <row r="164" spans="3:3">
-      <c r="C164" s="9"/>
+      <c r="C164" s="10"/>
     </row>
     <row r="165" spans="3:3">
-      <c r="C165" s="9"/>
+      <c r="C165" s="10"/>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="9"/>
+      <c r="C166" s="10"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="9"/>
+      <c r="C167" s="10"/>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="9"/>
+      <c r="C168" s="10"/>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="9"/>
+      <c r="C169" s="10"/>
     </row>
     <row r="170" spans="3:3">
-      <c r="C170" s="9"/>
+      <c r="C170" s="10"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="9"/>
+      <c r="C171" s="10"/>
     </row>
     <row r="172" spans="3:3">
-      <c r="C172" s="9"/>
+      <c r="C172" s="10"/>
     </row>
     <row r="173" spans="3:3">
-      <c r="C173" s="9"/>
+      <c r="C173" s="10"/>
     </row>
     <row r="174" spans="3:3">
-      <c r="C174" s="9"/>
+      <c r="C174" s="10"/>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="9"/>
+      <c r="C175" s="10"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="9"/>
+      <c r="C176" s="10"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="9"/>
+      <c r="C177" s="10"/>
     </row>
     <row r="178" spans="3:3">
-      <c r="C178" s="9"/>
+      <c r="C178" s="10"/>
     </row>
     <row r="179" spans="3:3">
-      <c r="C179" s="9"/>
+      <c r="C179" s="10"/>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="9"/>
+      <c r="C180" s="10"/>
     </row>
     <row r="181" spans="3:3">
-      <c r="C181" s="9"/>
+      <c r="C181" s="10"/>
     </row>
     <row r="182" spans="3:3">
-      <c r="C182" s="9"/>
+      <c r="C182" s="10"/>
     </row>
     <row r="183" spans="3:3">
-      <c r="C183" s="9"/>
+      <c r="C183" s="10"/>
     </row>
     <row r="184" spans="3:3">
-      <c r="C184" s="9"/>
+      <c r="C184" s="10"/>
     </row>
     <row r="185" spans="3:3">
-      <c r="C185" s="9"/>
+      <c r="C185" s="10"/>
     </row>
     <row r="186" spans="3:3">
-      <c r="C186" s="9"/>
+      <c r="C186" s="10"/>
     </row>
     <row r="187" spans="3:3">
-      <c r="C187" s="9"/>
+      <c r="C187" s="10"/>
     </row>
     <row r="188" spans="3:3">
-      <c r="C188" s="9"/>
+      <c r="C188" s="10"/>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" s="9"/>
+      <c r="C189" s="10"/>
     </row>
     <row r="190" spans="3:3">
-      <c r="C190" s="9"/>
+      <c r="C190" s="10"/>
     </row>
     <row r="191" spans="3:3">
-      <c r="C191" s="9"/>
+      <c r="C191" s="10"/>
     </row>
     <row r="192" spans="3:3">
-      <c r="C192" s="9"/>
+      <c r="C192" s="10"/>
     </row>
     <row r="193" spans="3:3">
-      <c r="C193" s="9"/>
+      <c r="C193" s="10"/>
     </row>
     <row r="194" spans="3:3">
-      <c r="C194" s="9"/>
+      <c r="C194" s="10"/>
     </row>
     <row r="195" spans="3:3">
-      <c r="C195" s="9"/>
+      <c r="C195" s="10"/>
     </row>
     <row r="196" spans="3:3">
-      <c r="C196" s="9"/>
+      <c r="C196" s="10"/>
     </row>
     <row r="197" spans="3:3">
-      <c r="C197" s="9"/>
+      <c r="C197" s="10"/>
     </row>
     <row r="198" spans="3:3">
-      <c r="C198" s="9"/>
+      <c r="C198" s="10"/>
     </row>
     <row r="199" spans="3:3">
-      <c r="C199" s="9"/>
+      <c r="C199" s="10"/>
     </row>
     <row r="200" spans="3:3">
-      <c r="C200" s="9"/>
+      <c r="C200" s="10"/>
     </row>
     <row r="201" spans="3:3">
-      <c r="C201" s="9"/>
+      <c r="C201" s="10"/>
     </row>
     <row r="202" spans="3:3">
-      <c r="C202" s="9"/>
+      <c r="C202" s="10"/>
     </row>
     <row r="203" spans="3:3">
-      <c r="C203" s="9"/>
+      <c r="C203" s="10"/>
     </row>
     <row r="204" spans="3:3">
-      <c r="C204" s="9"/>
+      <c r="C204" s="10"/>
     </row>
     <row r="205" spans="3:3">
-      <c r="C205" s="9"/>
+      <c r="C205" s="10"/>
     </row>
     <row r="206" spans="3:3">
-      <c r="C206" s="9"/>
+      <c r="C206" s="10"/>
     </row>
     <row r="207" spans="3:3">
-      <c r="C207" s="9"/>
+      <c r="C207" s="10"/>
     </row>
     <row r="208" spans="3:3">
-      <c r="C208" s="9"/>
+      <c r="C208" s="10"/>
     </row>
     <row r="209" spans="3:3">
-      <c r="C209" s="9"/>
+      <c r="C209" s="10"/>
     </row>
     <row r="210" spans="3:3">
-      <c r="C210" s="9"/>
+      <c r="C210" s="10"/>
     </row>
     <row r="211" spans="3:3">
-      <c r="C211" s="9"/>
+      <c r="C211" s="10"/>
     </row>
     <row r="212" spans="3:3">
-      <c r="C212" s="9"/>
+      <c r="C212" s="10"/>
     </row>
     <row r="213" spans="3:3">
-      <c r="C213" s="9"/>
+      <c r="C213" s="10"/>
     </row>
     <row r="214" spans="3:3">
-      <c r="C214" s="9"/>
+      <c r="C214" s="10"/>
     </row>
     <row r="215" spans="3:3">
-      <c r="C215" s="9"/>
+      <c r="C215" s="10"/>
     </row>
     <row r="216" spans="3:3">
-      <c r="C216" s="9"/>
+      <c r="C216" s="10"/>
     </row>
     <row r="217" spans="3:3">
-      <c r="C217" s="9"/>
+      <c r="C217" s="10"/>
     </row>
     <row r="219" spans="3:3">
-      <c r="C219" s="9"/>
+      <c r="C219" s="10"/>
     </row>
     <row r="220" spans="3:3">
-      <c r="C220" s="9"/>
+      <c r="C220" s="10"/>
     </row>
     <row r="221" spans="3:3">
-      <c r="C221" s="9"/>
+      <c r="C221" s="10"/>
     </row>
     <row r="222" spans="3:3">
-      <c r="C222" s="9"/>
+      <c r="C222" s="10"/>
     </row>
     <row r="223" spans="3:3">
-      <c r="C223" s="9"/>
+      <c r="C223" s="10"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="9"/>
+      <c r="C224" s="10"/>
     </row>
     <row r="225" spans="3:3">
-      <c r="C225" s="9"/>
+      <c r="C225" s="10"/>
     </row>
     <row r="226" spans="3:3">
-      <c r="C226" s="9"/>
+      <c r="C226" s="10"/>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" s="9"/>
+      <c r="C227" s="10"/>
     </row>
     <row r="228" spans="3:3">
-      <c r="C228" s="9"/>
+      <c r="C228" s="10"/>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" s="9"/>
+      <c r="C229" s="10"/>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="9"/>
+      <c r="C230" s="10"/>
     </row>
     <row r="231" spans="3:3">
-      <c r="C231" s="9"/>
+      <c r="C231" s="10"/>
     </row>
     <row r="232" spans="3:3">
-      <c r="C232" s="9"/>
+      <c r="C232" s="10"/>
     </row>
     <row r="233" spans="3:3">
-      <c r="C233" s="9"/>
+      <c r="C233" s="10"/>
     </row>
     <row r="234" spans="3:3">
-      <c r="C234" s="9"/>
+      <c r="C234" s="10"/>
     </row>
     <row r="235" spans="3:3">
-      <c r="C235" s="9"/>
+      <c r="C235" s="10"/>
     </row>
     <row r="236" spans="3:3">
-      <c r="C236" s="9"/>
+      <c r="C236" s="10"/>
     </row>
     <row r="237" spans="3:3">
-      <c r="C237" s="9"/>
+      <c r="C237" s="10"/>
     </row>
     <row r="238" spans="3:3">
-      <c r="C238" s="9"/>
+      <c r="C238" s="10"/>
     </row>
     <row r="239" spans="3:3">
-      <c r="C239" s="9"/>
+      <c r="C239" s="10"/>
     </row>
     <row r="240" spans="3:3">
-      <c r="C240" s="9"/>
+      <c r="C240" s="10"/>
     </row>
     <row r="241" spans="3:3">
-      <c r="C241" s="9"/>
+      <c r="C241" s="10"/>
     </row>
     <row r="242" spans="3:3">
-      <c r="C242" s="9"/>
+      <c r="C242" s="10"/>
     </row>
     <row r="243" spans="3:3">
-      <c r="C243" s="9"/>
+      <c r="C243" s="10"/>
     </row>
     <row r="244" spans="3:3">
-      <c r="C244" s="9"/>
+      <c r="C244" s="10"/>
     </row>
     <row r="245" spans="3:3">
-      <c r="C245" s="9"/>
+      <c r="C245" s="10"/>
     </row>
     <row r="246" spans="3:3">
-      <c r="C246" s="9"/>
+      <c r="C246" s="10"/>
     </row>
     <row r="247" spans="3:3">
-      <c r="C247" s="9"/>
+      <c r="C247" s="10"/>
     </row>
     <row r="248" spans="3:3">
-      <c r="C248" s="9"/>
+      <c r="C248" s="10"/>
     </row>
     <row r="249" spans="3:3">
-      <c r="C249" s="9"/>
+      <c r="C249" s="10"/>
     </row>
     <row r="250" spans="3:3">
-      <c r="C250" s="9"/>
+      <c r="C250" s="10"/>
     </row>
     <row r="251" spans="3:3">
-      <c r="C251" s="9"/>
+      <c r="C251" s="10"/>
     </row>
     <row r="252" spans="3:3">
-      <c r="C252" s="9"/>
+      <c r="C252" s="10"/>
     </row>
     <row r="253" spans="3:3">
-      <c r="C253" s="9"/>
+      <c r="C253" s="10"/>
     </row>
     <row r="254" spans="3:3">
-      <c r="C254" s="9"/>
+      <c r="C254" s="10"/>
     </row>
     <row r="255" spans="3:3">
-      <c r="C255" s="9"/>
+      <c r="C255" s="10"/>
     </row>
     <row r="256" spans="3:3">
-      <c r="C256" s="9"/>
+      <c r="C256" s="10"/>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="9"/>
+      <c r="C257" s="10"/>
     </row>
     <row r="258" spans="3:3">
-      <c r="C258" s="9"/>
+      <c r="C258" s="10"/>
     </row>
     <row r="259" spans="3:3">
-      <c r="C259" s="9"/>
+      <c r="C259" s="10"/>
     </row>
     <row r="260" spans="3:3">
-      <c r="C260" s="9"/>
+      <c r="C260" s="10"/>
     </row>
     <row r="261" spans="3:3">
-      <c r="C261" s="9"/>
+      <c r="C261" s="10"/>
     </row>
     <row r="262" spans="3:3">
-      <c r="C262" s="9"/>
+      <c r="C262" s="10"/>
     </row>
     <row r="263" spans="3:3">
-      <c r="C263" s="9"/>
+      <c r="C263" s="10"/>
     </row>
     <row r="264" spans="3:3">
-      <c r="C264" s="9"/>
+      <c r="C264" s="10"/>
     </row>
     <row r="265" spans="3:3">
-      <c r="C265" s="9"/>
+      <c r="C265" s="10"/>
     </row>
     <row r="266" spans="3:3">
-      <c r="C266" s="9"/>
+      <c r="C266" s="10"/>
     </row>
     <row r="267" spans="3:3">
-      <c r="C267" s="9"/>
+      <c r="C267" s="10"/>
     </row>
     <row r="268" spans="3:3">
-      <c r="C268" s="9"/>
+      <c r="C268" s="10"/>
     </row>
     <row r="269" spans="3:3">
-      <c r="C269" s="9"/>
+      <c r="C269" s="10"/>
     </row>
     <row r="270" spans="3:3">
-      <c r="C270" s="9"/>
+      <c r="C270" s="10"/>
     </row>
     <row r="271" spans="3:3">
-      <c r="C271" s="9"/>
+      <c r="C271" s="10"/>
     </row>
     <row r="272" spans="3:3">
-      <c r="C272" s="9"/>
+      <c r="C272" s="10"/>
     </row>
     <row r="273" spans="3:3">
-      <c r="C273" s="9"/>
+      <c r="C273" s="10"/>
     </row>
     <row r="274" spans="3:3">
-      <c r="C274" s="9"/>
+      <c r="C274" s="10"/>
     </row>
     <row r="275" spans="3:3">
-      <c r="C275" s="9"/>
+      <c r="C275" s="10"/>
     </row>
     <row r="276" spans="3:3">
-      <c r="C276" s="9"/>
+      <c r="C276" s="10"/>
     </row>
     <row r="277" spans="3:3">
-      <c r="C277" s="9"/>
+      <c r="C277" s="10"/>
     </row>
     <row r="278" spans="3:3">
-      <c r="C278" s="9"/>
+      <c r="C278" s="10"/>
     </row>
     <row r="279" spans="3:3">
-      <c r="C279" s="9"/>
+      <c r="C279" s="10"/>
     </row>
     <row r="280" spans="3:3">
-      <c r="C280" s="9"/>
+      <c r="C280" s="10"/>
     </row>
     <row r="281" spans="3:3">
-      <c r="C281" s="9"/>
+      <c r="C281" s="10"/>
     </row>
     <row r="282" spans="3:3">
-      <c r="C282" s="9"/>
+      <c r="C282" s="10"/>
     </row>
     <row r="283" spans="3:3">
-      <c r="C283" s="9"/>
+      <c r="C283" s="10"/>
     </row>
     <row r="284" spans="3:3">
-      <c r="C284" s="9"/>
+      <c r="C284" s="10"/>
     </row>
     <row r="285" spans="3:3">
-      <c r="C285" s="9"/>
+      <c r="C285" s="10"/>
     </row>
     <row r="286" spans="3:3">
-      <c r="C286" s="9"/>
+      <c r="C286" s="10"/>
     </row>
     <row r="287" spans="3:3">
-      <c r="C287" s="9"/>
+      <c r="C287" s="10"/>
     </row>
     <row r="288" spans="3:3">
-      <c r="C288" s="9"/>
+      <c r="C288" s="10"/>
     </row>
     <row r="289" spans="3:3">
-      <c r="C289" s="9"/>
+      <c r="C289" s="10"/>
     </row>
     <row r="290" spans="3:3">
-      <c r="C290" s="9"/>
+      <c r="C290" s="10"/>
     </row>
     <row r="291" spans="3:3">
-      <c r="C291" s="9"/>
+      <c r="C291" s="10"/>
     </row>
     <row r="292" spans="3:3">
-      <c r="C292" s="9"/>
+      <c r="C292" s="10"/>
     </row>
     <row r="293" spans="3:3">
-      <c r="C293" s="9"/>
+      <c r="C293" s="10"/>
     </row>
     <row r="294" spans="3:3">
-      <c r="C294" s="9"/>
+      <c r="C294" s="10"/>
     </row>
     <row r="295" spans="3:3">
-      <c r="C295" s="9"/>
+      <c r="C295" s="10"/>
     </row>
     <row r="296" spans="3:3">
-      <c r="C296" s="9"/>
+      <c r="C296" s="10"/>
     </row>
     <row r="297" spans="3:3">
-      <c r="C297" s="9"/>
+      <c r="C297" s="10"/>
     </row>
     <row r="298" spans="3:3">
-      <c r="C298" s="9"/>
+      <c r="C298" s="10"/>
     </row>
     <row r="299" spans="3:3">
-      <c r="C299" s="9"/>
+      <c r="C299" s="10"/>
     </row>
     <row r="300" spans="3:3">
-      <c r="C300" s="9"/>
+      <c r="C300" s="10"/>
     </row>
     <row r="301" spans="3:3">
-      <c r="C301" s="9"/>
+      <c r="C301" s="10"/>
     </row>
     <row r="302" spans="3:3">
-      <c r="C302" s="9"/>
+      <c r="C302" s="10"/>
     </row>
     <row r="303" spans="3:3">
-      <c r="C303" s="9"/>
+      <c r="C303" s="10"/>
     </row>
     <row r="304" spans="3:3">
-      <c r="C304" s="9"/>
+      <c r="C304" s="10"/>
     </row>
     <row r="305" spans="3:3">
-      <c r="C305" s="9"/>
+      <c r="C305" s="10"/>
     </row>
     <row r="306" spans="3:3">
-      <c r="C306" s="9"/>
+      <c r="C306" s="10"/>
     </row>
     <row r="307" spans="3:3">
-      <c r="C307" s="9"/>
+      <c r="C307" s="10"/>
     </row>
     <row r="308" spans="3:3">
-      <c r="C308" s="9"/>
+      <c r="C308" s="10"/>
     </row>
     <row r="309" spans="3:3">
-      <c r="C309" s="9"/>
+      <c r="C309" s="10"/>
     </row>
     <row r="310" spans="3:3">
-      <c r="C310" s="9"/>
+      <c r="C310" s="10"/>
     </row>
     <row r="311" spans="3:3">
-      <c r="C311" s="9"/>
+      <c r="C311" s="10"/>
     </row>
     <row r="312" spans="3:3">
-      <c r="C312" s="9"/>
+      <c r="C312" s="10"/>
     </row>
     <row r="313" spans="3:3">
-      <c r="C313" s="9"/>
+      <c r="C313" s="10"/>
     </row>
     <row r="314" spans="3:3">
-      <c r="C314" s="9"/>
+      <c r="C314" s="10"/>
     </row>
     <row r="315" spans="3:3">
-      <c r="C315" s="9"/>
+      <c r="C315" s="10"/>
     </row>
     <row r="316" spans="3:3">
-      <c r="C316" s="9"/>
+      <c r="C316" s="10"/>
     </row>
     <row r="317" spans="3:3">
-      <c r="C317" s="9"/>
+      <c r="C317" s="10"/>
     </row>
     <row r="318" spans="3:3">
-      <c r="C318" s="9"/>
+      <c r="C318" s="10"/>
     </row>
     <row r="319" spans="3:3">
-      <c r="C319" s="9"/>
+      <c r="C319" s="10"/>
     </row>
     <row r="320" spans="3:3">
-      <c r="C320" s="9"/>
+      <c r="C320" s="10"/>
     </row>
     <row r="321" spans="3:3">
-      <c r="C321" s="9"/>
+      <c r="C321" s="10"/>
     </row>
     <row r="322" spans="3:3">
-      <c r="C322" s="9"/>
+      <c r="C322" s="10"/>
     </row>
     <row r="323" spans="3:3">
-      <c r="C323" s="9"/>
+      <c r="C323" s="10"/>
     </row>
     <row r="324" spans="3:3">
-      <c r="C324" s="9"/>
+      <c r="C324" s="10"/>
     </row>
     <row r="325" spans="3:3">
-      <c r="C325" s="9"/>
+      <c r="C325" s="10"/>
     </row>
     <row r="326" spans="3:3">
-      <c r="C326" s="9"/>
+      <c r="C326" s="10"/>
     </row>
     <row r="327" spans="3:3">
-      <c r="C327" s="9"/>
+      <c r="C327" s="10"/>
     </row>
     <row r="328" spans="3:3">
-      <c r="C328" s="9"/>
+      <c r="C328" s="10"/>
     </row>
     <row r="364" spans="3:3">
-      <c r="C364" s="9"/>
+      <c r="C364" s="10"/>
     </row>
     <row r="365" spans="3:3">
-      <c r="C365" s="10"/>
+      <c r="C365" s="15"/>
     </row>
     <row r="367" spans="3:3">
-      <c r="C367" s="9"/>
+      <c r="C367" s="10"/>
     </row>
     <row r="419" spans="3:3">
-      <c r="C419" s="11"/>
+      <c r="C419" s="16"/>
     </row>
     <row r="420" spans="3:3">
-      <c r="C420" s="10"/>
+      <c r="C420" s="15"/>
     </row>
     <row r="421" spans="3:3">
-      <c r="C421" s="11"/>
+      <c r="C421" s="16"/>
     </row>
     <row r="422" spans="3:3">
-      <c r="C422" s="9"/>
+      <c r="C422" s="10"/>
     </row>
     <row r="631" spans="3:3">
-      <c r="C631" s="9"/>
+      <c r="C631" s="10"/>
     </row>
     <row r="669" spans="3:3">
-      <c r="C669" s="9"/>
+      <c r="C669" s="10"/>
     </row>
     <row r="670" spans="3:3">
-      <c r="C670" s="10"/>
+      <c r="C670" s="15"/>
     </row>
     <row r="671" spans="3:3">
-      <c r="C671" s="10"/>
+      <c r="C671" s="15"/>
     </row>
     <row r="672" spans="3:3">
-      <c r="C672" s="10"/>
+      <c r="C672" s="15"/>
     </row>
     <row r="675" spans="3:3">
-      <c r="C675" s="9"/>
+      <c r="C675" s="10"/>
     </row>
     <row r="677" spans="3:3">
-      <c r="C677" s="9"/>
+      <c r="C677" s="10"/>
     </row>
     <row r="678" spans="3:3">
-      <c r="C678" s="9"/>
+      <c r="C678" s="10"/>
     </row>
     <row r="740" spans="3:3">
-      <c r="C740" s="9"/>
+      <c r="C740" s="10"/>
     </row>
     <row r="773" spans="3:3">
-      <c r="C773" s="9"/>
+      <c r="C773" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Processes/Finance/Reporting/Cash Management.xlsx
+++ b/Processes/Finance/Reporting/Cash Management.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Finance\Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125C8A1-CB5A-4176-B6F8-2B5486CA68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02CF5F-1205-48A8-8D65-30FCBCDD44C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CM" sheetId="1" r:id="rId1"/>
+    <sheet name="Liquidity" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
-  <si>
-    <t>Cash Management</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>in TEUR</t>
   </si>
@@ -90,17 +87,23 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>Liquidity</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +145,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,14 +209,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,7 +236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -232,13 +248,13 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,16 +263,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -301,11 +329,11 @@
     <c:title>
       <c:tx>
         <c:strRef>
-          <c:f>CM!$B$2</c:f>
+          <c:f>Liquidity!$B$2</c:f>
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Cash Management</c:v>
+              <c:v>Liquidity</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -351,7 +379,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CM!$E$2</c:f>
+              <c:f>Liquidity!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -376,7 +404,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(CM!$D$3,CM!$F$3,CM!$H$3,CM!$J$3,CM!$L$3,CM!$N$3,CM!$P$3,CM!$R$3,CM!$T$3,CM!$V$3,CM!$X$3,CM!$Z$3)</c:f>
+              <c:f>(Liquidity!$D$3,Liquidity!$F$3,Liquidity!$H$3,Liquidity!$J$3,Liquidity!$L$3,Liquidity!$N$3,Liquidity!$P$3,Liquidity!$R$3,Liquidity!$T$3,Liquidity!$V$3,Liquidity!$X$3,Liquidity!$Z$3)</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -384,44 +412,44 @@
                   <c:v>44592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44620</c:v>
+                  <c:v>44593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44651</c:v>
+                  <c:v>44621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44681</c:v>
+                  <c:v>44652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44712</c:v>
+                  <c:v>44682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44742</c:v>
+                  <c:v>44713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44773</c:v>
+                  <c:v>44743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44804</c:v>
+                  <c:v>44774</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44834</c:v>
+                  <c:v>44805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44865</c:v>
+                  <c:v>44835</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44895</c:v>
+                  <c:v>44866</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44926</c:v>
+                  <c:v>44896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(CM!$E$37,CM!$G$37,CM!$I$37,CM!$K$37,CM!$M$37,CM!$O$37,CM!$Q$37,CM!$S$37,CM!$U$37,CM!$W$37,CM!$Y$37,CM!$AA$37)</c:f>
+              <c:f>(Liquidity!$E$37,Liquidity!$G$37,Liquidity!$I$37,Liquidity!$K$37,Liquidity!$M$37,Liquidity!$O$37,Liquidity!$Q$37,Liquidity!$S$37,Liquidity!$U$37,Liquidity!$W$37,Liquidity!$Y$37,Liquidity!$AA$37)</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -475,7 +503,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CM!$D$2</c:f>
+              <c:f>Liquidity!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -497,7 +525,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(CM!$D$37,CM!$F$37,CM!$H$37,CM!$J$37,CM!$L$37,CM!$N$37,CM!$P$37,CM!$R$37,CM!$T$37,CM!$V$37,CM!$X$37,CM!$Z$37)</c:f>
+              <c:f>(Liquidity!$D$37,Liquidity!$F$37,Liquidity!$H$37,Liquidity!$J$37,Liquidity!$L$37,Liquidity!$N$37,Liquidity!$P$37,Liquidity!$R$37,Liquidity!$T$37,Liquidity!$V$37,Liquidity!$X$37,Liquidity!$Z$37)</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -633,7 +661,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>CM!$B$3</c:f>
+              <c:f>Liquidity!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1338,13 +1366,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1660,13 +1688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AA773"/>
+  <dimension ref="B1:AG774"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1676,169 +1704,228 @@
     <col min="3" max="3" width="1.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
     <col min="5" max="27" width="8.42578125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="28" max="28" width="1.7109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:33">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="2:27">
+    <row r="2" spans="2:33">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="M2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="O2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="Q2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="S2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="U2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="W2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="Y2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="AA2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:27">
+      <c r="AD2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33">
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7">
         <v>44592</v>
       </c>
       <c r="E3" s="7">
+        <f>+D3</f>
         <v>44592</v>
       </c>
       <c r="F3" s="7">
-        <v>44620</v>
+        <f>+DATE(YEAR(E3),MONTH(E3)+1,1)</f>
+        <v>44593</v>
       </c>
       <c r="G3" s="7">
-        <v>44620</v>
+        <f>+F3</f>
+        <v>44593</v>
       </c>
       <c r="H3" s="7">
-        <v>44651</v>
+        <f>+DATE(YEAR(G3),MONTH(G3)+1,1)</f>
+        <v>44621</v>
       </c>
       <c r="I3" s="7">
-        <v>44651</v>
+        <f>+H3</f>
+        <v>44621</v>
       </c>
       <c r="J3" s="7">
-        <v>44681</v>
+        <f>+DATE(YEAR(I3),MONTH(I3)+1,1)</f>
+        <v>44652</v>
       </c>
       <c r="K3" s="7">
-        <v>44681</v>
+        <f>+J3</f>
+        <v>44652</v>
       </c>
       <c r="L3" s="7">
-        <v>44712</v>
+        <f>+DATE(YEAR(K3),MONTH(K3)+1,1)</f>
+        <v>44682</v>
       </c>
       <c r="M3" s="7">
-        <v>44712</v>
+        <f>+L3</f>
+        <v>44682</v>
       </c>
       <c r="N3" s="7">
-        <v>44742</v>
+        <f>+DATE(YEAR(M3),MONTH(M3)+1,1)</f>
+        <v>44713</v>
       </c>
       <c r="O3" s="7">
-        <v>44742</v>
+        <f>+N3</f>
+        <v>44713</v>
       </c>
       <c r="P3" s="7">
-        <v>44773</v>
+        <f>+DATE(YEAR(O3),MONTH(O3)+1,1)</f>
+        <v>44743</v>
       </c>
       <c r="Q3" s="7">
-        <v>44773</v>
+        <f>+P3</f>
+        <v>44743</v>
       </c>
       <c r="R3" s="7">
-        <v>44804</v>
+        <f>+DATE(YEAR(Q3),MONTH(Q3)+1,1)</f>
+        <v>44774</v>
       </c>
       <c r="S3" s="7">
-        <v>44804</v>
+        <f>+R3</f>
+        <v>44774</v>
       </c>
       <c r="T3" s="7">
-        <v>44834</v>
+        <f>+DATE(YEAR(S3),MONTH(S3)+1,1)</f>
+        <v>44805</v>
       </c>
       <c r="U3" s="7">
-        <v>44834</v>
+        <f>+T3</f>
+        <v>44805</v>
       </c>
       <c r="V3" s="7">
-        <v>44865</v>
+        <f>+DATE(YEAR(U3),MONTH(U3)+1,1)</f>
+        <v>44835</v>
       </c>
       <c r="W3" s="7">
-        <v>44865</v>
+        <f>+V3</f>
+        <v>44835</v>
       </c>
       <c r="X3" s="7">
-        <v>44895</v>
+        <f>+DATE(YEAR(W3),MONTH(W3)+1,1)</f>
+        <v>44866</v>
       </c>
       <c r="Y3" s="7">
-        <v>44895</v>
+        <f>+X3</f>
+        <v>44866</v>
       </c>
       <c r="Z3" s="7">
-        <v>44926</v>
+        <f>+DATE(YEAR(Y3),MONTH(Y3)+1,1)</f>
+        <v>44896</v>
       </c>
       <c r="AA3" s="7">
-        <v>44926</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27">
+        <f>+Z3</f>
+        <v>44896</v>
+      </c>
+      <c r="AC3" s="20">
+        <f>+YEAR(AA3)+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AD3" s="20">
+        <f>+AC3+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AE3" s="20">
+        <f t="shared" ref="AE3:AG3" si="0">+AD3+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AF3" s="20">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AG3" s="20">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1864,9 +1951,9 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:33">
       <c r="B5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="16">
@@ -1878,95 +1965,115 @@
         <v>1000</v>
       </c>
       <c r="F5" s="16">
-        <f>+D37</f>
+        <f t="shared" ref="F5:AC5" si="1">+D37</f>
         <v>497.20000000000005</v>
       </c>
       <c r="G5" s="16">
-        <f>+E37</f>
+        <f t="shared" si="1"/>
         <v>497.20000000000005</v>
       </c>
       <c r="H5" s="16">
-        <f>+F37</f>
+        <f t="shared" si="1"/>
         <v>479.20000000000005</v>
       </c>
       <c r="I5" s="16">
-        <f>+G37</f>
+        <f t="shared" si="1"/>
         <v>469.40000000000009</v>
       </c>
       <c r="J5" s="16">
-        <f>+H37</f>
+        <f t="shared" si="1"/>
         <v>551.20000000000005</v>
       </c>
       <c r="K5" s="16">
-        <f>+I37</f>
+        <f t="shared" si="1"/>
         <v>506.59999999999991</v>
       </c>
       <c r="L5" s="16">
-        <f>+J37</f>
+        <f t="shared" si="1"/>
         <v>583.19999999999982</v>
       </c>
       <c r="M5" s="16">
-        <f>+K37</f>
+        <f t="shared" si="1"/>
         <v>716.29999999999973</v>
       </c>
       <c r="N5" s="16">
-        <f>+L37</f>
+        <f t="shared" si="1"/>
         <v>730.19999999999982</v>
       </c>
       <c r="O5" s="16">
-        <f>+M37</f>
+        <f t="shared" si="1"/>
         <v>843.49999999999977</v>
       </c>
       <c r="P5" s="16">
-        <f>+N37</f>
+        <f t="shared" si="1"/>
         <v>902.19999999999982</v>
       </c>
       <c r="Q5" s="16">
-        <f>+O37</f>
+        <f t="shared" si="1"/>
         <v>668.2</v>
       </c>
       <c r="R5" s="16">
-        <f>+P37</f>
+        <f t="shared" si="1"/>
         <v>1214.1999999999998</v>
       </c>
       <c r="S5" s="16">
-        <f>+Q37</f>
+        <f t="shared" si="1"/>
         <v>1045.3999999999999</v>
       </c>
       <c r="T5" s="16">
-        <f>+R37</f>
+        <f t="shared" si="1"/>
         <v>1396.1999999999998</v>
       </c>
       <c r="U5" s="16" t="str">
-        <f>+S37</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V5" s="16">
-        <f>+T37</f>
+        <f t="shared" si="1"/>
         <v>2368.1999999999998</v>
       </c>
       <c r="W5" s="16" t="str">
-        <f>+U37</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="X5" s="16">
-        <f>+V37</f>
+        <f t="shared" si="1"/>
         <v>2070.1999999999998</v>
       </c>
       <c r="Y5" s="16" t="str">
-        <f>+W37</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z5" s="16">
-        <f>+X37</f>
+        <f t="shared" si="1"/>
         <v>1817.1999999999998</v>
       </c>
       <c r="AA5" s="16" t="str">
-        <f>+Y37</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="2:27">
+      <c r="AC5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD5" s="16" t="e">
+        <f>+AC37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE5" s="16" t="e">
+        <f t="shared" ref="AE5:AG5" si="2">+AD37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF5" s="16" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG5" s="16" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1992,10 +2099,15 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
-    </row>
-    <row r="7" spans="2:27">
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="2:33">
       <c r="B7" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="18">
@@ -2011,7 +2123,7 @@
         <v>1450</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:AA7" si="0">+SUM(G8:G18)</f>
+        <f t="shared" ref="G7:AA7" si="3">+SUM(G8:G18)</f>
         <v>1500</v>
       </c>
       <c r="H7" s="18">
@@ -2019,7 +2131,7 @@
         <v>1500</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="J7" s="18">
@@ -2027,7 +2139,7 @@
         <v>1500</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="L7" s="18">
@@ -2035,7 +2147,7 @@
         <v>1900</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="N7" s="18">
@@ -2043,7 +2155,7 @@
         <v>1700</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1850</v>
       </c>
       <c r="P7" s="18">
@@ -2051,7 +2163,7 @@
         <v>1900</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="R7" s="18">
@@ -2059,7 +2171,7 @@
         <v>1700</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="18">
@@ -2067,7 +2179,7 @@
         <v>2100</v>
       </c>
       <c r="U7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="18">
@@ -2075,7 +2187,7 @@
         <v>1700</v>
       </c>
       <c r="W7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="18">
@@ -2083,7 +2195,7 @@
         <v>1200</v>
       </c>
       <c r="Y7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z7" s="18">
@@ -2091,11 +2203,31 @@
         <v>900</v>
       </c>
       <c r="AA7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:27">
+      <c r="AC7" s="21">
+        <f>+SUM(AC8:AC18)</f>
+        <v>900</v>
+      </c>
+      <c r="AD7" s="21">
+        <f t="shared" ref="AD7:AG7" si="4">+SUM(AD8:AD18)</f>
+        <v>900</v>
+      </c>
+      <c r="AE7" s="21">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="AF7" s="21">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="AG7" s="21">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
       <c r="B8" s="17"/>
       <c r="C8" s="10"/>
       <c r="D8" s="19"/>
@@ -2122,10 +2254,15 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="11"/>
-    </row>
-    <row r="9" spans="2:27">
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+    </row>
+    <row r="9" spans="2:33">
       <c r="B9" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="19">
@@ -2190,10 +2327,25 @@
         <v>900</v>
       </c>
       <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="2:27">
+      <c r="AC9" s="22">
+        <v>900</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>900</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>900</v>
+      </c>
+      <c r="AF9" s="22">
+        <v>900</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33">
       <c r="B10" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="19"/>
@@ -2222,8 +2374,13 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="11"/>
-    </row>
-    <row r="11" spans="2:27">
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+    </row>
+    <row r="11" spans="2:33">
       <c r="B11" s="17"/>
       <c r="C11" s="10"/>
       <c r="D11" s="19"/>
@@ -2250,10 +2407,15 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="11"/>
-    </row>
-    <row r="12" spans="2:27">
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+    </row>
+    <row r="12" spans="2:33">
       <c r="B12" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="19"/>
@@ -2282,8 +2444,13 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="11"/>
-    </row>
-    <row r="13" spans="2:27">
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+    </row>
+    <row r="13" spans="2:33">
       <c r="B13" s="17"/>
       <c r="C13" s="10"/>
       <c r="D13" s="19"/>
@@ -2310,10 +2477,15 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="11"/>
-    </row>
-    <row r="14" spans="2:27">
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+    </row>
+    <row r="14" spans="2:33">
       <c r="B14" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="19"/>
@@ -2342,10 +2514,15 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="11"/>
-    </row>
-    <row r="15" spans="2:27">
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+    </row>
+    <row r="15" spans="2:33">
       <c r="B15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="19"/>
@@ -2372,8 +2549,13 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="11"/>
-    </row>
-    <row r="16" spans="2:27">
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+    </row>
+    <row r="16" spans="2:33">
       <c r="B16" s="17"/>
       <c r="C16" s="10"/>
       <c r="D16" s="19"/>
@@ -2400,10 +2582,15 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="11"/>
-    </row>
-    <row r="17" spans="2:27">
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+    </row>
+    <row r="17" spans="2:33">
       <c r="B17" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="19"/>
@@ -2432,8 +2619,13 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="11"/>
-    </row>
-    <row r="18" spans="2:27">
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+    </row>
+    <row r="18" spans="2:33">
       <c r="B18" s="17"/>
       <c r="C18" s="10"/>
       <c r="D18" s="19"/>
@@ -2460,10 +2652,15 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="11"/>
-    </row>
-    <row r="19" spans="2:27">
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+    </row>
+    <row r="19" spans="2:33">
       <c r="B19" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="18">
@@ -2479,7 +2676,7 @@
         <v>-1468</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" ref="G19:AA19" si="1">+SUM(G20:G36)</f>
+        <f t="shared" ref="G19:AA19" si="5">+SUM(G20:G36)</f>
         <v>-1527.8</v>
       </c>
       <c r="H19" s="18">
@@ -2487,7 +2684,7 @@
         <v>-1428</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1462.8000000000002</v>
       </c>
       <c r="J19" s="18">
@@ -2495,7 +2692,7 @@
         <v>-1468</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1540.3000000000002</v>
       </c>
       <c r="L19" s="18">
@@ -2503,7 +2700,7 @@
         <v>-1753</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1672.8</v>
       </c>
       <c r="N19" s="18">
@@ -2511,7 +2708,7 @@
         <v>-1528</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-2025.3</v>
       </c>
       <c r="P19" s="18">
@@ -2519,7 +2716,7 @@
         <v>-1588</v>
       </c>
       <c r="Q19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1622.8</v>
       </c>
       <c r="R19" s="18">
@@ -2527,7 +2724,7 @@
         <v>-1518</v>
       </c>
       <c r="S19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" s="18">
@@ -2535,7 +2732,7 @@
         <v>-1128</v>
       </c>
       <c r="U19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V19" s="18">
@@ -2543,7 +2740,7 @@
         <v>-1998</v>
       </c>
       <c r="W19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X19" s="18">
@@ -2551,7 +2748,7 @@
         <v>-1453</v>
       </c>
       <c r="Y19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z19" s="18">
@@ -2559,11 +2756,31 @@
         <v>-1028</v>
       </c>
       <c r="AA19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="AC19" s="21">
+        <f>+SUM(AC20:AC36)</f>
+        <v>-1028</v>
+      </c>
+      <c r="AD19" s="21">
+        <f t="shared" ref="AD19:AG19" si="6">+SUM(AD20:AD36)</f>
+        <v>-1028</v>
+      </c>
+      <c r="AE19" s="21">
+        <f t="shared" si="6"/>
+        <v>-1028</v>
+      </c>
+      <c r="AF19" s="21">
+        <f t="shared" si="6"/>
+        <v>-1028</v>
+      </c>
+      <c r="AG19" s="21">
+        <f t="shared" si="6"/>
+        <v>-1028</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
       <c r="B20" s="17"/>
       <c r="C20" s="10"/>
       <c r="D20" s="19"/>
@@ -2590,10 +2807,15 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="19"/>
       <c r="AA20" s="11"/>
-    </row>
-    <row r="21" spans="2:27">
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+    </row>
+    <row r="21" spans="2:33">
       <c r="B21" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="19">
@@ -2608,7 +2830,7 @@
         <v>-350</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" ref="G21:Q21" si="2">-G7*0.25</f>
+        <f t="shared" ref="G21:Q21" si="7">-G7*0.25</f>
         <v>-375</v>
       </c>
       <c r="H21" s="19">
@@ -2616,7 +2838,7 @@
         <v>-375</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-375</v>
       </c>
       <c r="J21" s="19">
@@ -2624,7 +2846,7 @@
         <v>-375</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-437.5</v>
       </c>
       <c r="L21" s="19">
@@ -2632,7 +2854,7 @@
         <v>-475</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-450</v>
       </c>
       <c r="N21" s="19">
@@ -2640,7 +2862,7 @@
         <v>-425</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-462.5</v>
       </c>
       <c r="P21" s="19">
@@ -2648,7 +2870,7 @@
         <v>-475</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>-500</v>
       </c>
       <c r="R21" s="19">
@@ -2676,10 +2898,30 @@
         <v>-225</v>
       </c>
       <c r="AA21" s="11"/>
-    </row>
-    <row r="22" spans="2:27">
+      <c r="AC21" s="22">
+        <f>-AC7*0.25</f>
+        <v>-225</v>
+      </c>
+      <c r="AD21" s="22">
+        <f t="shared" ref="AD21:AG21" si="8">-AD7*0.25</f>
+        <v>-225</v>
+      </c>
+      <c r="AE21" s="22">
+        <f t="shared" si="8"/>
+        <v>-225</v>
+      </c>
+      <c r="AF21" s="22">
+        <f t="shared" si="8"/>
+        <v>-225</v>
+      </c>
+      <c r="AG21" s="22">
+        <f t="shared" si="8"/>
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
       <c r="B22" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="19"/>
@@ -2710,8 +2952,13 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="11"/>
-    </row>
-    <row r="23" spans="2:27">
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+    </row>
+    <row r="23" spans="2:33">
       <c r="B23" s="17"/>
       <c r="C23" s="10"/>
       <c r="D23" s="19"/>
@@ -2738,10 +2985,15 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="19"/>
       <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="2:27">
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+    </row>
+    <row r="24" spans="2:33">
       <c r="B24" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="19">
@@ -2804,8 +3056,13 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="2:27">
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+    </row>
+    <row r="25" spans="2:33">
       <c r="B25" s="17"/>
       <c r="C25" s="10"/>
       <c r="D25" s="19"/>
@@ -2832,10 +3089,15 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="19"/>
       <c r="AA25" s="11"/>
-    </row>
-    <row r="26" spans="2:27">
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+    </row>
+    <row r="26" spans="2:33">
       <c r="B26" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="19">
@@ -2900,8 +3162,23 @@
         <v>-800</v>
       </c>
       <c r="AA26" s="11"/>
-    </row>
-    <row r="27" spans="2:27">
+      <c r="AC26" s="22">
+        <v>-800</v>
+      </c>
+      <c r="AD26" s="22">
+        <v>-800</v>
+      </c>
+      <c r="AE26" s="22">
+        <v>-800</v>
+      </c>
+      <c r="AF26" s="22">
+        <v>-800</v>
+      </c>
+      <c r="AG26" s="22">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
       <c r="B27" s="17"/>
       <c r="C27" s="10"/>
       <c r="D27" s="19"/>
@@ -2928,10 +3205,15 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="19"/>
       <c r="AA27" s="11"/>
-    </row>
-    <row r="28" spans="2:27">
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+    </row>
+    <row r="28" spans="2:33">
       <c r="B28" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="19"/>
@@ -2968,8 +3250,13 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="11"/>
-    </row>
-    <row r="29" spans="2:27">
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+    </row>
+    <row r="29" spans="2:33">
       <c r="B29" s="17"/>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
@@ -2996,10 +3283,15 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="19"/>
       <c r="AA29" s="11"/>
-    </row>
-    <row r="30" spans="2:27">
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+    </row>
+    <row r="30" spans="2:33">
       <c r="B30" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="19">
@@ -3065,10 +3357,25 @@
         <v>-2</v>
       </c>
       <c r="AA30" s="11"/>
-    </row>
-    <row r="31" spans="2:27">
+      <c r="AC30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AD30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AE30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG30" s="22">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33">
       <c r="B31" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="19">
@@ -3133,8 +3440,23 @@
         <v>-1</v>
       </c>
       <c r="AA31" s="11"/>
-    </row>
-    <row r="32" spans="2:27">
+      <c r="AC31" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AD31" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AE31" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AF31" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AG31" s="22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
       <c r="B32" s="17"/>
       <c r="C32" s="10"/>
       <c r="D32" s="19"/>
@@ -3161,10 +3483,15 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="19"/>
       <c r="AA32" s="11"/>
-    </row>
-    <row r="33" spans="2:27">
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+    </row>
+    <row r="33" spans="2:33">
       <c r="B33" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="19"/>
@@ -3193,8 +3520,13 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="19"/>
       <c r="AA33" s="11"/>
-    </row>
-    <row r="34" spans="2:27">
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+    </row>
+    <row r="34" spans="2:33">
       <c r="B34" s="17"/>
       <c r="C34" s="10"/>
       <c r="D34" s="19"/>
@@ -3221,10 +3553,15 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="11"/>
-    </row>
-    <row r="35" spans="2:27">
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+    </row>
+    <row r="35" spans="2:33">
       <c r="B35" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="19"/>
@@ -3251,8 +3588,13 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="19"/>
       <c r="AA35" s="11"/>
-    </row>
-    <row r="36" spans="2:27">
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+    </row>
+    <row r="36" spans="2:33">
       <c r="B36" s="17"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -3279,10 +3621,15 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
-    </row>
-    <row r="37" spans="2:27">
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+    </row>
+    <row r="37" spans="2:33">
       <c r="B37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="16">
@@ -3381,48 +3728,120 @@
         <f>+IF(AND(AA7=0,AA19=0),"",AA5+AA7+AA19)</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="2:27">
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="2:27">
+      <c r="AC37" s="16" t="e">
+        <f>+AC5+AC7+AC19</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD37" s="16" t="e">
+        <f t="shared" ref="AD37:AG37" si="9">+AD5+AD7+AD19</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE37" s="16" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF37" s="16" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG37" s="16" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="23">
+        <f>+E37-D37</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="23">
+        <f>+G37-F37</f>
+        <v>-9.7999999999999545</v>
+      </c>
+      <c r="I38" s="23">
+        <f>+I37-H37</f>
+        <v>-44.600000000000136</v>
+      </c>
+      <c r="K38" s="23">
+        <f>+K37-J37</f>
+        <v>133.09999999999991</v>
+      </c>
+      <c r="M38" s="23">
+        <f>+M37-L37</f>
+        <v>113.29999999999995</v>
+      </c>
+      <c r="O38" s="23">
+        <f>+O37-N37</f>
+        <v>-233.99999999999977</v>
+      </c>
+      <c r="Q38" s="23">
+        <f>+Q37-P37</f>
+        <v>-168.79999999999995</v>
+      </c>
+      <c r="S38" s="23" t="e">
+        <f>+S37-R37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U38" s="23" t="e">
+        <f>+U37-T37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W38" s="23" t="e">
+        <f>+W37-V37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y38" s="23" t="e">
+        <f>+Y37-X37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA38" s="23" t="e">
+        <f>+AA37-Z37</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33">
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="2:27">
+      <c r="S39" s="23"/>
+    </row>
+    <row r="40" spans="2:33">
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="2:27">
+    <row r="41" spans="2:33">
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="2:27">
+    <row r="42" spans="2:33">
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="2:27">
+    <row r="43" spans="2:33">
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="2:27">
+    <row r="44" spans="2:33">
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="2:27">
+    <row r="45" spans="2:33">
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="2:27">
+    <row r="46" spans="2:33">
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="2:27">
+    <row r="47" spans="2:33">
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="2:27">
+    <row r="48" spans="2:33">
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
     </row>
@@ -3683,8 +4102,8 @@
       <c r="D112" s="10"/>
     </row>
     <row r="113" spans="3:4">
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="3:4">
       <c r="C114" s="14"/>
@@ -3714,13 +4133,13 @@
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
     </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-    </row>
-    <row r="127" spans="3:4">
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
+    <row r="121" spans="3:4">
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="128" spans="3:4">
       <c r="C128" s="10"/>
@@ -4082,9 +4501,9 @@
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
     </row>
-    <row r="219" spans="3:4">
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
+    <row r="218" spans="3:4">
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
     </row>
     <row r="220" spans="3:4">
       <c r="C220" s="10"/>
@@ -4522,45 +4941,45 @@
       <c r="C328" s="10"/>
       <c r="D328" s="10"/>
     </row>
-    <row r="364" spans="3:4">
-      <c r="C364" s="10"/>
-      <c r="D364" s="10"/>
+    <row r="329" spans="3:4">
+      <c r="C329" s="10"/>
+      <c r="D329" s="10"/>
     </row>
     <row r="365" spans="3:4">
-      <c r="C365" s="14"/>
-      <c r="D365" s="14"/>
-    </row>
-    <row r="367" spans="3:4">
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
-    </row>
-    <row r="419" spans="3:4">
-      <c r="C419" s="15"/>
-      <c r="D419" s="15"/>
+      <c r="C365" s="10"/>
+      <c r="D365" s="10"/>
+    </row>
+    <row r="366" spans="3:4">
+      <c r="C366" s="14"/>
+      <c r="D366" s="14"/>
+    </row>
+    <row r="368" spans="3:4">
+      <c r="C368" s="10"/>
+      <c r="D368" s="10"/>
     </row>
     <row r="420" spans="3:4">
-      <c r="C420" s="14"/>
-      <c r="D420" s="14"/>
+      <c r="C420" s="15"/>
+      <c r="D420" s="15"/>
     </row>
     <row r="421" spans="3:4">
-      <c r="C421" s="15"/>
-      <c r="D421" s="15"/>
+      <c r="C421" s="14"/>
+      <c r="D421" s="14"/>
     </row>
     <row r="422" spans="3:4">
-      <c r="C422" s="10"/>
-      <c r="D422" s="10"/>
-    </row>
-    <row r="631" spans="3:4">
-      <c r="C631" s="10"/>
-      <c r="D631" s="10"/>
-    </row>
-    <row r="669" spans="3:4">
-      <c r="C669" s="10"/>
-      <c r="D669" s="10"/>
+      <c r="C422" s="15"/>
+      <c r="D422" s="15"/>
+    </row>
+    <row r="423" spans="3:4">
+      <c r="C423" s="10"/>
+      <c r="D423" s="10"/>
+    </row>
+    <row r="632" spans="3:4">
+      <c r="C632" s="10"/>
+      <c r="D632" s="10"/>
     </row>
     <row r="670" spans="3:4">
-      <c r="C670" s="14"/>
-      <c r="D670" s="14"/>
+      <c r="C670" s="10"/>
+      <c r="D670" s="10"/>
     </row>
     <row r="671" spans="3:4">
       <c r="C671" s="14"/>
@@ -4570,29 +4989,36 @@
       <c r="C672" s="14"/>
       <c r="D672" s="14"/>
     </row>
-    <row r="675" spans="3:4">
-      <c r="C675" s="10"/>
-      <c r="D675" s="10"/>
-    </row>
-    <row r="677" spans="3:4">
-      <c r="C677" s="10"/>
-      <c r="D677" s="10"/>
+    <row r="673" spans="3:4">
+      <c r="C673" s="14"/>
+      <c r="D673" s="14"/>
+    </row>
+    <row r="676" spans="3:4">
+      <c r="C676" s="10"/>
+      <c r="D676" s="10"/>
     </row>
     <row r="678" spans="3:4">
       <c r="C678" s="10"/>
       <c r="D678" s="10"/>
     </row>
-    <row r="740" spans="3:4">
-      <c r="C740" s="10"/>
-      <c r="D740" s="10"/>
-    </row>
-    <row r="773" spans="3:4">
-      <c r="C773" s="10"/>
-      <c r="D773" s="10"/>
+    <row r="679" spans="3:4">
+      <c r="C679" s="10"/>
+      <c r="D679" s="10"/>
+    </row>
+    <row r="741" spans="3:4">
+      <c r="C741" s="10"/>
+      <c r="D741" s="10"/>
+    </row>
+    <row r="774" spans="3:4">
+      <c r="C774" s="10"/>
+      <c r="D774" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="F3:AA3" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Processes/Finance/Reporting/Cash Management.xlsx
+++ b/Processes/Finance/Reporting/Cash Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deich\git\Organization-Guide\Processes\Finance\Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE02CF5F-1205-48A8-8D65-30FCBCDD44C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8976DB4-8168-48B5-94B1-B2CCBC9E2A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>in TEUR</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Liquidity!$E$37,Liquidity!$G$37,Liquidity!$I$37,Liquidity!$K$37,Liquidity!$M$37,Liquidity!$O$37,Liquidity!$Q$37,Liquidity!$S$37,Liquidity!$U$37,Liquidity!$W$37,Liquidity!$Y$37,Liquidity!$AA$37)</c:f>
+              <c:f>(Liquidity!$E$39,Liquidity!$G$39,Liquidity!$I$39,Liquidity!$K$39,Liquidity!$M$39,Liquidity!$O$39,Liquidity!$Q$39,Liquidity!$S$39,Liquidity!$U$39,Liquidity!$W$39,Liquidity!$Y$39,Liquidity!$AA$39)</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -525,7 +531,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Liquidity!$D$37,Liquidity!$F$37,Liquidity!$H$37,Liquidity!$J$37,Liquidity!$L$37,Liquidity!$N$37,Liquidity!$P$37,Liquidity!$R$37,Liquidity!$T$37,Liquidity!$V$37,Liquidity!$X$37,Liquidity!$Z$37)</c:f>
+              <c:f>(Liquidity!$D$39,Liquidity!$F$39,Liquidity!$H$39,Liquidity!$J$39,Liquidity!$L$39,Liquidity!$N$39,Liquidity!$P$39,Liquidity!$R$39,Liquidity!$T$39,Liquidity!$V$39,Liquidity!$X$39,Liquidity!$Z$39)</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -1366,13 +1372,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1688,13 +1694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG774"/>
+  <dimension ref="B1:AG776"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1965,7 +1971,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="16">
-        <f t="shared" ref="F5:AC5" si="1">+D37</f>
+        <f t="shared" ref="F5:AC5" si="1">+D39</f>
         <v>497.20000000000005</v>
       </c>
       <c r="G5" s="16">
@@ -2057,11 +2063,11 @@
         <v/>
       </c>
       <c r="AD5" s="16" t="e">
-        <f>+AC37</f>
+        <f>+AC39</f>
         <v>#VALUE!</v>
       </c>
       <c r="AE5" s="16" t="e">
-        <f t="shared" ref="AE5:AG5" si="2">+AD37</f>
+        <f t="shared" ref="AE5:AG5" si="2">+AD39</f>
         <v>#VALUE!</v>
       </c>
       <c r="AF5" s="16" t="e">
@@ -2111,23 +2117,23 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="18">
-        <f>+SUM(D8:D18)</f>
+        <f>+SUM(D8:D19)</f>
         <v>1000</v>
       </c>
       <c r="E7" s="13">
-        <f>+SUM(E8:E18)</f>
+        <f>+SUM(E8:E19)</f>
         <v>1000</v>
       </c>
       <c r="F7" s="18">
-        <f>+SUM(F8:F18)</f>
+        <f>+SUM(F8:F19)</f>
         <v>1450</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:AA7" si="3">+SUM(G8:G18)</f>
+        <f t="shared" ref="G7:AA7" si="3">+SUM(G8:G19)</f>
         <v>1500</v>
       </c>
       <c r="H7" s="18">
-        <f>+SUM(H8:H18)</f>
+        <f>+SUM(H8:H19)</f>
         <v>1500</v>
       </c>
       <c r="I7" s="13">
@@ -2135,7 +2141,7 @@
         <v>1500</v>
       </c>
       <c r="J7" s="18">
-        <f>+SUM(J8:J18)</f>
+        <f>+SUM(J8:J19)</f>
         <v>1500</v>
       </c>
       <c r="K7" s="13">
@@ -2143,7 +2149,7 @@
         <v>1750</v>
       </c>
       <c r="L7" s="18">
-        <f>+SUM(L8:L18)</f>
+        <f>+SUM(L8:L19)</f>
         <v>1900</v>
       </c>
       <c r="M7" s="13">
@@ -2151,7 +2157,7 @@
         <v>1800</v>
       </c>
       <c r="N7" s="18">
-        <f>+SUM(N8:N18)</f>
+        <f>+SUM(N8:N19)</f>
         <v>1700</v>
       </c>
       <c r="O7" s="13">
@@ -2159,7 +2165,7 @@
         <v>1850</v>
       </c>
       <c r="P7" s="18">
-        <f>+SUM(P8:P18)</f>
+        <f>+SUM(P8:P19)</f>
         <v>1900</v>
       </c>
       <c r="Q7" s="13">
@@ -2167,7 +2173,7 @@
         <v>2000</v>
       </c>
       <c r="R7" s="18">
-        <f>+SUM(R8:R18)</f>
+        <f>+SUM(R8:R19)</f>
         <v>1700</v>
       </c>
       <c r="S7" s="13">
@@ -2175,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="18">
-        <f>+SUM(T8:T18)</f>
+        <f>+SUM(T8:T19)</f>
         <v>2100</v>
       </c>
       <c r="U7" s="13">
@@ -2183,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="18">
-        <f>+SUM(V8:V18)</f>
+        <f>+SUM(V8:V19)</f>
         <v>1700</v>
       </c>
       <c r="W7" s="13">
@@ -2191,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="18">
-        <f>+SUM(X8:X18)</f>
+        <f>+SUM(X8:X19)</f>
         <v>1200</v>
       </c>
       <c r="Y7" s="13">
@@ -2199,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="18">
-        <f>+SUM(Z8:Z18)</f>
+        <f>+SUM(Z8:Z19)</f>
         <v>900</v>
       </c>
       <c r="AA7" s="13">
@@ -2207,11 +2213,11 @@
         <v>0</v>
       </c>
       <c r="AC7" s="21">
-        <f>+SUM(AC8:AC18)</f>
+        <f>+SUM(AC8:AC19)</f>
         <v>900</v>
       </c>
       <c r="AD7" s="21">
-        <f t="shared" ref="AD7:AG7" si="4">+SUM(AD8:AD18)</f>
+        <f t="shared" ref="AD7:AG7" si="4">+SUM(AD8:AD19)</f>
         <v>900</v>
       </c>
       <c r="AE7" s="21">
@@ -2590,7 +2596,7 @@
     </row>
     <row r="17" spans="2:33">
       <c r="B17" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="19"/>
@@ -2600,9 +2606,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="11"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="11">
-        <v>150</v>
-      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="19"/>
       <c r="M17" s="11"/>
       <c r="N17" s="19"/>
@@ -2626,7 +2630,9 @@
       <c r="AG17" s="22"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="19"/>
       <c r="E18" s="11"/>
@@ -2635,7 +2641,9 @@
       <c r="H18" s="19"/>
       <c r="I18" s="11"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="11">
+        <v>150</v>
+      </c>
       <c r="L18" s="19"/>
       <c r="M18" s="11"/>
       <c r="N18" s="19"/>
@@ -2659,318 +2667,318 @@
       <c r="AG18" s="22"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="11"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+    </row>
+    <row r="20" spans="2:33">
+      <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="18">
-        <f>+SUM(D20:D36)</f>
+      <c r="C20" s="10"/>
+      <c r="D20" s="18">
+        <f>+SUM(D21:D38)</f>
         <v>-1502.8</v>
       </c>
-      <c r="E19" s="13">
-        <f>+SUM(E20:E36)</f>
+      <c r="E20" s="13">
+        <f>+SUM(E21:E38)</f>
         <v>-1502.8</v>
       </c>
-      <c r="F19" s="18">
-        <f>+SUM(F20:F36)</f>
+      <c r="F20" s="18">
+        <f>+SUM(F21:F38)</f>
         <v>-1468</v>
       </c>
-      <c r="G19" s="13">
-        <f t="shared" ref="G19:AA19" si="5">+SUM(G20:G36)</f>
+      <c r="G20" s="13">
+        <f t="shared" ref="G20:AA20" si="5">+SUM(G21:G38)</f>
         <v>-1527.8</v>
       </c>
-      <c r="H19" s="18">
-        <f>+SUM(H20:H36)</f>
+      <c r="H20" s="18">
+        <f>+SUM(H21:H38)</f>
         <v>-1428</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <f t="shared" si="5"/>
         <v>-1462.8000000000002</v>
       </c>
-      <c r="J19" s="18">
-        <f>+SUM(J20:J36)</f>
+      <c r="J20" s="18">
+        <f>+SUM(J21:J38)</f>
         <v>-1468</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K20" s="13">
         <f t="shared" si="5"/>
         <v>-1540.3000000000002</v>
       </c>
-      <c r="L19" s="18">
-        <f>+SUM(L20:L36)</f>
+      <c r="L20" s="18">
+        <f>+SUM(L21:L38)</f>
         <v>-1753</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M20" s="13">
         <f t="shared" si="5"/>
         <v>-1672.8</v>
       </c>
-      <c r="N19" s="18">
-        <f>+SUM(N20:N36)</f>
+      <c r="N20" s="18">
+        <f>+SUM(N21:N38)</f>
         <v>-1528</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O20" s="13">
         <f t="shared" si="5"/>
         <v>-2025.3</v>
       </c>
-      <c r="P19" s="18">
-        <f>+SUM(P20:P36)</f>
+      <c r="P20" s="18">
+        <f>+SUM(P21:P38)</f>
         <v>-1588</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q20" s="13">
         <f t="shared" si="5"/>
         <v>-1622.8</v>
       </c>
-      <c r="R19" s="18">
-        <f>+SUM(R20:R36)</f>
+      <c r="R20" s="18">
+        <f>+SUM(R21:R38)</f>
         <v>-1518</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S20" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="18">
-        <f>+SUM(T20:T36)</f>
+      <c r="T20" s="18">
+        <f>+SUM(T21:T38)</f>
         <v>-1128</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U20" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V19" s="18">
-        <f>+SUM(V20:V36)</f>
+      <c r="V20" s="18">
+        <f>+SUM(V21:V38)</f>
         <v>-1998</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W20" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="18">
-        <f>+SUM(X20:X36)</f>
+      <c r="X20" s="18">
+        <f>+SUM(X21:X38)</f>
         <v>-1453</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="Y20" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="18">
-        <f>+SUM(Z20:Z36)</f>
+      <c r="Z20" s="18">
+        <f>+SUM(Z21:Z38)</f>
         <v>-1028</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA20" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="21">
-        <f>+SUM(AC20:AC36)</f>
+      <c r="AC20" s="21">
+        <f>+SUM(AC21:AC38)</f>
         <v>-1028</v>
       </c>
-      <c r="AD19" s="21">
-        <f t="shared" ref="AD19:AG19" si="6">+SUM(AD20:AD36)</f>
+      <c r="AD20" s="21">
+        <f t="shared" ref="AD20:AG20" si="6">+SUM(AD21:AD38)</f>
         <v>-1028</v>
       </c>
-      <c r="AE19" s="21">
+      <c r="AE20" s="21">
         <f t="shared" si="6"/>
         <v>-1028</v>
       </c>
-      <c r="AF19" s="21">
+      <c r="AF20" s="21">
         <f t="shared" si="6"/>
         <v>-1028</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AG20" s="21">
         <f t="shared" si="6"/>
         <v>-1028</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
-      <c r="B20" s="17"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="11"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-    </row>
     <row r="21" spans="2:33">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="11"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+    </row>
+    <row r="22" spans="2:33">
+      <c r="B22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="19">
+      <c r="C22" s="10"/>
+      <c r="D22" s="19">
         <f>-D7*0.25</f>
         <v>-250</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <f>-E7*0.25</f>
         <v>-250</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F22" s="19">
         <v>-350</v>
       </c>
-      <c r="G21" s="11">
-        <f t="shared" ref="G21:Q21" si="7">-G7*0.25</f>
+      <c r="G22" s="11">
+        <f t="shared" ref="G22:Q22" si="7">-G7*0.25</f>
         <v>-375</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H22" s="19">
         <f>-H7*0.25</f>
         <v>-375</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <f t="shared" si="7"/>
         <v>-375</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J22" s="19">
         <f>-J7*0.25</f>
         <v>-375</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <f t="shared" si="7"/>
         <v>-437.5</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L22" s="19">
         <f>-L7*0.25</f>
         <v>-475</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M22" s="11">
         <f t="shared" si="7"/>
         <v>-450</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N22" s="19">
         <f>-N7*0.25</f>
         <v>-425</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <f t="shared" si="7"/>
         <v>-462.5</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P22" s="19">
         <f>-P7*0.25</f>
         <v>-475</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q22" s="11">
         <f t="shared" si="7"/>
         <v>-500</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R22" s="19">
         <f>-R7*0.25</f>
         <v>-425</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="19">
+      <c r="S22" s="11"/>
+      <c r="T22" s="19">
         <f>-T7*0.25</f>
         <v>-525</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="19">
+      <c r="U22" s="11"/>
+      <c r="V22" s="19">
         <f>-V7*0.25</f>
         <v>-425</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="19">
+      <c r="W22" s="11"/>
+      <c r="X22" s="19">
         <f>-X7*0.25</f>
         <v>-300</v>
       </c>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="19">
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="19">
         <f>-Z7*0.25</f>
         <v>-225</v>
       </c>
-      <c r="AA21" s="11"/>
-      <c r="AC21" s="22">
+      <c r="AA22" s="11"/>
+      <c r="AC22" s="22">
         <f>-AC7*0.25</f>
         <v>-225</v>
       </c>
-      <c r="AD21" s="22">
-        <f t="shared" ref="AD21:AG21" si="8">-AD7*0.25</f>
+      <c r="AD22" s="22">
+        <f t="shared" ref="AD22:AG22" si="8">-AD7*0.25</f>
         <v>-225</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="AE22" s="22">
         <f t="shared" si="8"/>
         <v>-225</v>
       </c>
-      <c r="AF21" s="22">
+      <c r="AF22" s="22">
         <f t="shared" si="8"/>
         <v>-225</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="AG22" s="22">
         <f t="shared" si="8"/>
         <v>-225</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
-      <c r="B22" s="17" t="s">
+    <row r="23" spans="2:33">
+      <c r="B23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="11">
-        <v>-50</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="11">
-        <v>-100</v>
-      </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="11"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-    </row>
-    <row r="23" spans="2:33">
-      <c r="B23" s="17"/>
       <c r="C23" s="10"/>
       <c r="D23" s="19"/>
       <c r="E23" s="11"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11">
+        <v>-50</v>
+      </c>
       <c r="H23" s="19"/>
       <c r="I23" s="11"/>
       <c r="J23" s="19"/>
       <c r="K23" s="11"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="11">
+        <v>-100</v>
+      </c>
       <c r="N23" s="19"/>
       <c r="O23" s="11"/>
       <c r="P23" s="19"/>
@@ -2992,67 +3000,29 @@
       <c r="AG23" s="22"/>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="B24" s="17"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="19">
-        <v>-450</v>
-      </c>
-      <c r="E24" s="11">
-        <v>-450</v>
-      </c>
-      <c r="F24" s="19">
-        <v>-280</v>
-      </c>
-      <c r="G24" s="11">
-        <v>-300</v>
-      </c>
-      <c r="H24" s="19">
-        <v>-250</v>
-      </c>
-      <c r="I24" s="11">
-        <v>-250</v>
-      </c>
-      <c r="J24" s="19">
-        <v>-290</v>
-      </c>
-      <c r="K24" s="11">
-        <v>-300</v>
-      </c>
-      <c r="L24" s="19">
-        <v>-325</v>
-      </c>
-      <c r="M24" s="11">
-        <v>-320</v>
-      </c>
-      <c r="N24" s="19">
-        <v>-300</v>
-      </c>
-      <c r="O24" s="11">
-        <v>-310</v>
-      </c>
-      <c r="P24" s="19">
-        <v>-310</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>-320</v>
-      </c>
-      <c r="R24" s="19">
-        <v>-290</v>
-      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="19"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="19">
-        <v>-250</v>
-      </c>
+      <c r="T24" s="19"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="19">
-        <v>-270</v>
-      </c>
+      <c r="V24" s="19"/>
       <c r="W24" s="11"/>
-      <c r="X24" s="19">
-        <v>-350</v>
-      </c>
+      <c r="X24" s="19"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="11"/>
@@ -3063,29 +3033,67 @@
       <c r="AG24" s="22"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="17"/>
+      <c r="B25" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="19"/>
+      <c r="D25" s="19">
+        <v>-450</v>
+      </c>
+      <c r="E25" s="11">
+        <v>-450</v>
+      </c>
+      <c r="F25" s="19">
+        <v>-280</v>
+      </c>
+      <c r="G25" s="11">
+        <v>-300</v>
+      </c>
+      <c r="H25" s="19">
+        <v>-250</v>
+      </c>
+      <c r="I25" s="11">
+        <v>-250</v>
+      </c>
+      <c r="J25" s="19">
+        <v>-290</v>
+      </c>
+      <c r="K25" s="11">
+        <v>-300</v>
+      </c>
+      <c r="L25" s="19">
+        <v>-325</v>
+      </c>
+      <c r="M25" s="11">
+        <v>-320</v>
+      </c>
+      <c r="N25" s="19">
+        <v>-300</v>
+      </c>
+      <c r="O25" s="11">
+        <v>-310</v>
+      </c>
+      <c r="P25" s="19">
+        <v>-310</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>-320</v>
+      </c>
+      <c r="R25" s="19">
+        <v>-290</v>
+      </c>
       <c r="S25" s="11"/>
-      <c r="T25" s="19"/>
+      <c r="T25" s="19">
+        <v>-250</v>
+      </c>
       <c r="U25" s="11"/>
-      <c r="V25" s="19"/>
+      <c r="V25" s="19">
+        <v>-270</v>
+      </c>
       <c r="W25" s="11"/>
-      <c r="X25" s="19"/>
+      <c r="X25" s="19">
+        <v>-350</v>
+      </c>
       <c r="Y25" s="11"/>
       <c r="Z25" s="19"/>
       <c r="AA25" s="11"/>
@@ -3096,141 +3104,133 @@
       <c r="AG25" s="22"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="11"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+    </row>
+    <row r="27" spans="2:33">
+      <c r="B27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="19">
+      <c r="C27" s="10"/>
+      <c r="D27" s="19">
         <v>-800</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>-800</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F27" s="19">
         <v>-800</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>-800</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H27" s="19">
         <v>-800</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I27" s="11">
         <v>-800</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J27" s="19">
         <v>-800</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>-800</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L27" s="19">
         <v>-800</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M27" s="11">
         <v>-800</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N27" s="19">
         <v>-800</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <v>-800</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P27" s="19">
         <v>-800</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q27" s="11">
         <v>-800</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R27" s="19">
         <v>-800</v>
       </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="19">
+      <c r="S27" s="11"/>
+      <c r="T27" s="19">
         <v>-800</v>
       </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="19">
+      <c r="U27" s="11"/>
+      <c r="V27" s="19">
         <v>-800</v>
       </c>
-      <c r="W26" s="11"/>
-      <c r="X26" s="19">
+      <c r="W27" s="11"/>
+      <c r="X27" s="19">
         <v>-800</v>
       </c>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="19">
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="19">
         <v>-800</v>
       </c>
-      <c r="AA26" s="11"/>
-      <c r="AC26" s="22">
+      <c r="AA27" s="11"/>
+      <c r="AC27" s="22">
         <v>-800</v>
       </c>
-      <c r="AD26" s="22">
+      <c r="AD27" s="22">
         <v>-800</v>
       </c>
-      <c r="AE26" s="22">
+      <c r="AE27" s="22">
         <v>-800</v>
       </c>
-      <c r="AF26" s="22">
+      <c r="AF27" s="22">
         <v>-800</v>
       </c>
-      <c r="AG26" s="22">
+      <c r="AG27" s="22">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
-      <c r="B27" s="17"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="11"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-    </row>
     <row r="28" spans="2:33">
-      <c r="B28" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="B28" s="17"/>
       <c r="C28" s="10"/>
       <c r="D28" s="19"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="19">
-        <v>-35</v>
-      </c>
+      <c r="F28" s="19"/>
       <c r="G28" s="11"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="11">
-        <v>-35</v>
-      </c>
+      <c r="I28" s="11"/>
       <c r="J28" s="19"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="19">
-        <v>-150</v>
-      </c>
+      <c r="L28" s="19"/>
       <c r="M28" s="11"/>
       <c r="N28" s="19"/>
       <c r="O28" s="11"/>
@@ -3238,13 +3238,9 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="19"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="19">
-        <v>-50</v>
-      </c>
+      <c r="T28" s="19"/>
       <c r="U28" s="11"/>
-      <c r="V28" s="19">
-        <v>-500</v>
-      </c>
+      <c r="V28" s="19"/>
       <c r="W28" s="11"/>
       <c r="X28" s="19"/>
       <c r="Y28" s="11"/>
@@ -3257,17 +3253,25 @@
       <c r="AG28" s="22"/>
     </row>
     <row r="29" spans="2:33">
-      <c r="B29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19">
+        <v>-35</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11">
+        <v>-35</v>
+      </c>
       <c r="J29" s="19"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="19">
+        <v>-150</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="19"/>
       <c r="O29" s="11"/>
@@ -3275,9 +3279,13 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="19"/>
       <c r="S29" s="11"/>
-      <c r="T29" s="19"/>
+      <c r="T29" s="19">
+        <v>-50</v>
+      </c>
       <c r="U29" s="11"/>
-      <c r="V29" s="19"/>
+      <c r="V29" s="19">
+        <v>-500</v>
+      </c>
       <c r="W29" s="11"/>
       <c r="X29" s="19"/>
       <c r="Y29" s="11"/>
@@ -3290,209 +3298,207 @@
       <c r="AG29" s="22"/>
     </row>
     <row r="30" spans="2:33">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="11"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+    </row>
+    <row r="31" spans="2:33">
+      <c r="B31" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="19">
+      <c r="C31" s="10"/>
+      <c r="D31" s="19">
         <v>-1.8</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>-1.8</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F31" s="19">
         <v>-2</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>-1.8</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H31" s="19">
         <v>-2</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I31" s="11">
         <v>-1.9</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J31" s="19">
         <v>-2</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="11">
         <v>-1.9</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L31" s="19">
         <v>-2</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M31" s="11">
         <v>-2</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N31" s="19">
         <v>-2</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O31" s="11">
         <v>-2</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P31" s="19">
         <v>-2</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q31" s="11">
         <v>-2.1</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R31" s="19">
         <v>-2</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="19">
+      <c r="S31" s="11"/>
+      <c r="T31" s="19">
         <f>-2+500</f>
         <v>498</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="19">
-        <v>-2</v>
-      </c>
-      <c r="W30" s="11"/>
-      <c r="X30" s="19">
-        <v>-2</v>
-      </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AA30" s="11"/>
-      <c r="AC30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AD30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG30" s="22">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:33">
-      <c r="B31" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="11">
-        <v>-0.9</v>
-      </c>
-      <c r="J31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="K31" s="11">
-        <v>-0.9</v>
-      </c>
-      <c r="L31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="11">
-        <v>-0.8</v>
-      </c>
-      <c r="N31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="O31" s="11">
-        <v>-0.8</v>
-      </c>
-      <c r="P31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>-0.7</v>
-      </c>
-      <c r="R31" s="19">
-        <v>-1</v>
-      </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="19">
-        <v>-1</v>
-      </c>
       <c r="U31" s="11"/>
       <c r="V31" s="19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W31" s="11"/>
       <c r="X31" s="19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" s="19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="11"/>
       <c r="AC31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AD31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AE31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF31" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG31" s="22">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
+      <c r="B32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="19">
         <v>-1</v>
       </c>
-      <c r="AD31" s="22">
+      <c r="E32" s="11">
         <v>-1</v>
       </c>
-      <c r="AE31" s="22">
+      <c r="F32" s="19">
         <v>-1</v>
       </c>
-      <c r="AF31" s="22">
+      <c r="G32" s="11">
         <v>-1</v>
       </c>
-      <c r="AG31" s="22">
+      <c r="H32" s="19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="2:33">
-      <c r="B32" s="17"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="19"/>
+      <c r="I32" s="11">
+        <v>-0.9</v>
+      </c>
+      <c r="J32" s="19">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>-0.9</v>
+      </c>
+      <c r="L32" s="19">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="11">
+        <v>-0.8</v>
+      </c>
+      <c r="N32" s="19">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="11">
+        <v>-0.8</v>
+      </c>
+      <c r="P32" s="19">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>-0.7</v>
+      </c>
+      <c r="R32" s="19">
+        <v>-1</v>
+      </c>
       <c r="S32" s="11"/>
-      <c r="T32" s="19"/>
+      <c r="T32" s="19">
+        <v>-1</v>
+      </c>
       <c r="U32" s="11"/>
-      <c r="V32" s="19"/>
+      <c r="V32" s="19">
+        <v>-1</v>
+      </c>
       <c r="W32" s="11"/>
-      <c r="X32" s="19"/>
+      <c r="X32" s="19">
+        <v>-1</v>
+      </c>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="19"/>
+      <c r="Z32" s="19">
+        <v>-1</v>
+      </c>
       <c r="AA32" s="11"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
+      <c r="AC32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AD32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AE32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AF32" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AG32" s="22">
+        <v>-1</v>
+      </c>
     </row>
     <row r="33" spans="2:33">
-      <c r="B33" s="17" t="s">
-        <v>14</v>
-      </c>
+      <c r="B33" s="17"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19"/>
       <c r="E33" s="11"/>
@@ -3505,9 +3511,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="11"/>
       <c r="N33" s="19"/>
-      <c r="O33" s="11">
-        <v>-450</v>
-      </c>
+      <c r="O33" s="11"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="19"/>
@@ -3527,7 +3531,9 @@
       <c r="AG33" s="22"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="19"/>
       <c r="E34" s="11"/>
@@ -3540,7 +3546,9 @@
       <c r="L34" s="19"/>
       <c r="M34" s="11"/>
       <c r="N34" s="19"/>
-      <c r="O34" s="11"/>
+      <c r="O34" s="11">
+        <v>-450</v>
+      </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="19"/>
@@ -3560,9 +3568,7 @@
       <c r="AG34" s="22"/>
     </row>
     <row r="35" spans="2:33">
-      <c r="B35" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="B35" s="17"/>
       <c r="C35" s="10"/>
       <c r="D35" s="19"/>
       <c r="E35" s="11"/>
@@ -3595,227 +3601,289 @@
       <c r="AG35" s="22"/>
     </row>
     <row r="36" spans="2:33">
-      <c r="B36" s="17"/>
+      <c r="B36" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="N36" s="19"/>
       <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
+      <c r="P36" s="19"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
+      <c r="R36" s="19"/>
       <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
+      <c r="V36" s="19"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
+      <c r="X36" s="19"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
+      <c r="Z36" s="19"/>
       <c r="AA36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="11"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+    </row>
+    <row r="38" spans="2:33">
+      <c r="B38" s="17"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+    </row>
+    <row r="39" spans="2:33">
+      <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="16">
-        <f>+D5+D7+D19</f>
+      <c r="C39" s="10"/>
+      <c r="D39" s="16">
+        <f>+D5+D7+D20</f>
         <v>497.20000000000005</v>
       </c>
-      <c r="E37" s="16">
-        <f>+IF(AND(E7=0,E19=0),"",E5+E7+E19)</f>
+      <c r="E39" s="16">
+        <f>+IF(AND(E7=0,E20=0),"",E5+E7+E20)</f>
         <v>497.20000000000005</v>
       </c>
-      <c r="F37" s="16">
-        <f>+F5+F7+F19</f>
+      <c r="F39" s="16">
+        <f>+F5+F7+F20</f>
         <v>479.20000000000005</v>
       </c>
-      <c r="G37" s="16">
-        <f>+IF(AND(G7=0,G19=0),"",G5+G7+G19)</f>
+      <c r="G39" s="16">
+        <f>+IF(AND(G7=0,G20=0),"",G5+G7+G20)</f>
         <v>469.40000000000009</v>
       </c>
-      <c r="H37" s="16">
-        <f>+H5+H7+H19</f>
+      <c r="H39" s="16">
+        <f>+H5+H7+H20</f>
         <v>551.20000000000005</v>
       </c>
-      <c r="I37" s="16">
-        <f>+IF(AND(I7=0,I19=0),"",I5+I7+I19)</f>
+      <c r="I39" s="16">
+        <f>+IF(AND(I7=0,I20=0),"",I5+I7+I20)</f>
         <v>506.59999999999991</v>
       </c>
-      <c r="J37" s="16">
-        <f>+J5+J7+J19</f>
+      <c r="J39" s="16">
+        <f>+J5+J7+J20</f>
         <v>583.19999999999982</v>
       </c>
-      <c r="K37" s="16">
-        <f>+IF(AND(K7=0,K19=0),"",K5+K7+K19)</f>
+      <c r="K39" s="16">
+        <f>+IF(AND(K7=0,K20=0),"",K5+K7+K20)</f>
         <v>716.29999999999973</v>
       </c>
-      <c r="L37" s="16">
-        <f>+L5+L7+L19</f>
+      <c r="L39" s="16">
+        <f>+L5+L7+L20</f>
         <v>730.19999999999982</v>
       </c>
-      <c r="M37" s="16">
-        <f>+IF(AND(M7=0,M19=0),"",M5+M7+M19)</f>
+      <c r="M39" s="16">
+        <f>+IF(AND(M7=0,M20=0),"",M5+M7+M20)</f>
         <v>843.49999999999977</v>
       </c>
-      <c r="N37" s="16">
-        <f>+N5+N7+N19</f>
+      <c r="N39" s="16">
+        <f>+N5+N7+N20</f>
         <v>902.19999999999982</v>
       </c>
-      <c r="O37" s="16">
-        <f>+IF(AND(O7=0,O19=0),"",O5+O7+O19)</f>
+      <c r="O39" s="16">
+        <f>+IF(AND(O7=0,O20=0),"",O5+O7+O20)</f>
         <v>668.2</v>
       </c>
-      <c r="P37" s="16">
-        <f>+P5+P7+P19</f>
+      <c r="P39" s="16">
+        <f>+P5+P7+P20</f>
         <v>1214.1999999999998</v>
       </c>
-      <c r="Q37" s="16">
-        <f>+IF(AND(Q7=0,Q19=0),"",Q5+Q7+Q19)</f>
+      <c r="Q39" s="16">
+        <f>+IF(AND(Q7=0,Q20=0),"",Q5+Q7+Q20)</f>
         <v>1045.3999999999999</v>
       </c>
-      <c r="R37" s="16">
-        <f>+R5+R7+R19</f>
+      <c r="R39" s="16">
+        <f>+R5+R7+R20</f>
         <v>1396.1999999999998</v>
       </c>
-      <c r="S37" s="16" t="str">
-        <f>+IF(AND(S7=0,S19=0),"",S5+S7+S19)</f>
+      <c r="S39" s="16" t="str">
+        <f>+IF(AND(S7=0,S20=0),"",S5+S7+S20)</f>
         <v/>
       </c>
-      <c r="T37" s="16">
-        <f>+T5+T7+T19</f>
+      <c r="T39" s="16">
+        <f>+T5+T7+T20</f>
         <v>2368.1999999999998</v>
       </c>
-      <c r="U37" s="16" t="str">
-        <f>+IF(AND(U7=0,U19=0),"",U5+U7+U19)</f>
+      <c r="U39" s="16" t="str">
+        <f>+IF(AND(U7=0,U20=0),"",U5+U7+U20)</f>
         <v/>
       </c>
-      <c r="V37" s="16">
-        <f>+V5+V7+V19</f>
+      <c r="V39" s="16">
+        <f>+V5+V7+V20</f>
         <v>2070.1999999999998</v>
       </c>
-      <c r="W37" s="16" t="str">
-        <f>+IF(AND(W7=0,W19=0),"",W5+W7+W19)</f>
+      <c r="W39" s="16" t="str">
+        <f>+IF(AND(W7=0,W20=0),"",W5+W7+W20)</f>
         <v/>
       </c>
-      <c r="X37" s="16">
-        <f>+X5+X7+X19</f>
+      <c r="X39" s="16">
+        <f>+X5+X7+X20</f>
         <v>1817.1999999999998</v>
       </c>
-      <c r="Y37" s="16" t="str">
-        <f>+IF(AND(Y7=0,Y19=0),"",Y5+Y7+Y19)</f>
+      <c r="Y39" s="16" t="str">
+        <f>+IF(AND(Y7=0,Y20=0),"",Y5+Y7+Y20)</f>
         <v/>
       </c>
-      <c r="Z37" s="16">
-        <f>+Z5+Z7+Z19</f>
+      <c r="Z39" s="16">
+        <f>+Z5+Z7+Z20</f>
         <v>1689.1999999999998</v>
       </c>
-      <c r="AA37" s="16" t="str">
-        <f>+IF(AND(AA7=0,AA19=0),"",AA5+AA7+AA19)</f>
+      <c r="AA39" s="16" t="str">
+        <f>+IF(AND(AA7=0,AA20=0),"",AA5+AA7+AA20)</f>
         <v/>
       </c>
-      <c r="AC37" s="16" t="e">
-        <f>+AC5+AC7+AC19</f>
+      <c r="AC39" s="16" t="e">
+        <f>+AC5+AC7+AC20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD37" s="16" t="e">
-        <f t="shared" ref="AD37:AG37" si="9">+AD5+AD7+AD19</f>
+      <c r="AD39" s="16" t="e">
+        <f t="shared" ref="AD39:AG39" si="9">+AD5+AD7+AD20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AE37" s="16" t="e">
+      <c r="AE39" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AF37" s="16" t="e">
+      <c r="AF39" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG37" s="16" t="e">
+      <c r="AG39" s="16" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:33">
-      <c r="B38" s="1" t="s">
+    <row r="40" spans="2:33">
+      <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="23">
-        <f>+E37-D37</f>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="23">
+        <f>+E39-D39</f>
         <v>0</v>
       </c>
-      <c r="G38" s="23">
-        <f>+G37-F37</f>
+      <c r="G40" s="23">
+        <f>+G39-F39</f>
         <v>-9.7999999999999545</v>
       </c>
-      <c r="I38" s="23">
-        <f>+I37-H37</f>
+      <c r="I40" s="23">
+        <f>+I39-H39</f>
         <v>-44.600000000000136</v>
       </c>
-      <c r="K38" s="23">
-        <f>+K37-J37</f>
+      <c r="K40" s="23">
+        <f>+K39-J39</f>
         <v>133.09999999999991</v>
       </c>
-      <c r="M38" s="23">
-        <f>+M37-L37</f>
+      <c r="M40" s="23">
+        <f>+M39-L39</f>
         <v>113.29999999999995</v>
       </c>
-      <c r="O38" s="23">
-        <f>+O37-N37</f>
+      <c r="O40" s="23">
+        <f>+O39-N39</f>
         <v>-233.99999999999977</v>
       </c>
-      <c r="Q38" s="23">
-        <f>+Q37-P37</f>
+      <c r="Q40" s="23">
+        <f>+Q39-P39</f>
         <v>-168.79999999999995</v>
       </c>
-      <c r="S38" s="23" t="e">
-        <f>+S37-R37</f>
+      <c r="S40" s="23" t="e">
+        <f>+S39-R39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U38" s="23" t="e">
-        <f>+U37-T37</f>
+      <c r="U40" s="23" t="e">
+        <f>+U39-T39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W38" s="23" t="e">
-        <f>+W37-V37</f>
+      <c r="W40" s="23" t="e">
+        <f>+W39-V39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y38" s="23" t="e">
-        <f>+Y37-X37</f>
+      <c r="Y40" s="23" t="e">
+        <f>+Y39-X39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA38" s="23" t="e">
-        <f>+AA37-Z37</f>
+      <c r="AA40" s="23" t="e">
+        <f>+AA39-Z39</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="39" spans="2:33">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="S39" s="23"/>
-    </row>
-    <row r="40" spans="2:33">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="2:33">
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
+      <c r="S41" s="23"/>
     </row>
     <row r="42" spans="2:33">
       <c r="C42" s="10"/>
@@ -4106,12 +4174,12 @@
       <c r="D113" s="10"/>
     </row>
     <row r="114" spans="3:4">
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" spans="3:4">
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
     </row>
     <row r="116" spans="3:4">
       <c r="C116" s="14"/>
@@ -4137,17 +4205,17 @@
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
     </row>
+    <row r="122" spans="3:4">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+    </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-    </row>
-    <row r="128" spans="3:4">
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="130" spans="3:4">
       <c r="C130" s="10"/>
@@ -4505,14 +4573,14 @@
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
     </row>
+    <row r="219" spans="3:4">
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+    </row>
     <row r="220" spans="3:4">
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
     </row>
-    <row r="221" spans="3:4">
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-    </row>
     <row r="222" spans="3:4">
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
@@ -4945,73 +5013,81 @@
       <c r="C329" s="10"/>
       <c r="D329" s="10"/>
     </row>
-    <row r="365" spans="3:4">
-      <c r="C365" s="10"/>
-      <c r="D365" s="10"/>
-    </row>
-    <row r="366" spans="3:4">
-      <c r="C366" s="14"/>
-      <c r="D366" s="14"/>
+    <row r="330" spans="3:4">
+      <c r="C330" s="10"/>
+      <c r="D330" s="10"/>
+    </row>
+    <row r="331" spans="3:4">
+      <c r="C331" s="10"/>
+      <c r="D331" s="10"/>
+    </row>
+    <row r="367" spans="3:4">
+      <c r="C367" s="10"/>
+      <c r="D367" s="10"/>
     </row>
     <row r="368" spans="3:4">
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-    </row>
-    <row r="420" spans="3:4">
-      <c r="C420" s="15"/>
-      <c r="D420" s="15"/>
-    </row>
-    <row r="421" spans="3:4">
-      <c r="C421" s="14"/>
-      <c r="D421" s="14"/>
+      <c r="C368" s="14"/>
+      <c r="D368" s="14"/>
+    </row>
+    <row r="370" spans="3:4">
+      <c r="C370" s="10"/>
+      <c r="D370" s="10"/>
     </row>
     <row r="422" spans="3:4">
       <c r="C422" s="15"/>
       <c r="D422" s="15"/>
     </row>
     <row r="423" spans="3:4">
-      <c r="C423" s="10"/>
-      <c r="D423" s="10"/>
-    </row>
-    <row r="632" spans="3:4">
-      <c r="C632" s="10"/>
-      <c r="D632" s="10"/>
-    </row>
-    <row r="670" spans="3:4">
-      <c r="C670" s="10"/>
-      <c r="D670" s="10"/>
-    </row>
-    <row r="671" spans="3:4">
-      <c r="C671" s="14"/>
-      <c r="D671" s="14"/>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+    </row>
+    <row r="424" spans="3:4">
+      <c r="C424" s="15"/>
+      <c r="D424" s="15"/>
+    </row>
+    <row r="425" spans="3:4">
+      <c r="C425" s="10"/>
+      <c r="D425" s="10"/>
+    </row>
+    <row r="634" spans="3:4">
+      <c r="C634" s="10"/>
+      <c r="D634" s="10"/>
     </row>
     <row r="672" spans="3:4">
-      <c r="C672" s="14"/>
-      <c r="D672" s="14"/>
+      <c r="C672" s="10"/>
+      <c r="D672" s="10"/>
     </row>
     <row r="673" spans="3:4">
       <c r="C673" s="14"/>
       <c r="D673" s="14"/>
     </row>
-    <row r="676" spans="3:4">
-      <c r="C676" s="10"/>
-      <c r="D676" s="10"/>
+    <row r="674" spans="3:4">
+      <c r="C674" s="14"/>
+      <c r="D674" s="14"/>
+    </row>
+    <row r="675" spans="3:4">
+      <c r="C675" s="14"/>
+      <c r="D675" s="14"/>
     </row>
     <row r="678" spans="3:4">
       <c r="C678" s="10"/>
       <c r="D678" s="10"/>
     </row>
-    <row r="679" spans="3:4">
-      <c r="C679" s="10"/>
-      <c r="D679" s="10"/>
-    </row>
-    <row r="741" spans="3:4">
-      <c r="C741" s="10"/>
-      <c r="D741" s="10"/>
-    </row>
-    <row r="774" spans="3:4">
-      <c r="C774" s="10"/>
-      <c r="D774" s="10"/>
+    <row r="680" spans="3:4">
+      <c r="C680" s="10"/>
+      <c r="D680" s="10"/>
+    </row>
+    <row r="681" spans="3:4">
+      <c r="C681" s="10"/>
+      <c r="D681" s="10"/>
+    </row>
+    <row r="743" spans="3:4">
+      <c r="C743" s="10"/>
+      <c r="D743" s="10"/>
+    </row>
+    <row r="776" spans="3:4">
+      <c r="C776" s="10"/>
+      <c r="D776" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
